--- a/fuentes/contenidos/grado11/guion01/SolicitudGrafica-MA_11_01_CO_REC50.xlsx
+++ b/fuentes/contenidos/grado11/guion01/SolicitudGrafica-MA_11_01_CO_REC50.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="154">
   <si>
     <t>Fecha:</t>
   </si>
@@ -534,13 +534,7 @@
     <t>IMG03</t>
   </si>
   <si>
-    <t>Unicamente el signo +</t>
-  </si>
-  <si>
-    <t>Unicamente el signo x</t>
-  </si>
-  <si>
-    <t>El signo por y el signo mas</t>
+    <t>Ok</t>
   </si>
 </sst>
 </file>
@@ -1426,6 +1420,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1508,13 +1509,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1657,13 +1651,13 @@
           <xdr:col>9</xdr:col>
           <xdr:colOff>952500</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>149679</xdr:rowOff>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
           <xdr:colOff>2486025</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>1692729</xdr:rowOff>
+          <xdr:rowOff>1695450</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1706,15 +1700,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>1265465</xdr:colOff>
+          <xdr:colOff>1266825</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>244928</xdr:rowOff>
+          <xdr:rowOff>247650</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>2741840</xdr:colOff>
+          <xdr:colOff>2743200</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>1730828</xdr:rowOff>
+          <xdr:rowOff>1733550</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1757,15 +1751,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>1673678</xdr:colOff>
+          <xdr:colOff>1676400</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>136072</xdr:rowOff>
+          <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>3445328</xdr:colOff>
+          <xdr:colOff>3448050</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>1707697</xdr:rowOff>
+          <xdr:rowOff>1704975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2521,9 +2515,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2561,14 +2555,14 @@
       <c r="B2" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="75"/>
-      <c r="F2" s="67" t="s">
+      <c r="D2" s="78"/>
+      <c r="F2" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="68"/>
+      <c r="G2" s="71"/>
       <c r="H2" s="42"/>
       <c r="I2" s="42"/>
       <c r="J2" s="16"/>
@@ -2578,12 +2572,12 @@
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="76">
+      <c r="C3" s="79">
         <v>11</v>
       </c>
-      <c r="D3" s="77"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="70"/>
+      <c r="D3" s="80"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="73"/>
       <c r="H3" s="42"/>
       <c r="I3" s="42"/>
       <c r="J3" s="16"/>
@@ -2593,10 +2587,10 @@
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="79" t="s">
         <v>148</v>
       </c>
-      <c r="D4" s="77"/>
+      <c r="D4" s="80"/>
       <c r="E4" s="5"/>
       <c r="F4" s="41" t="s">
         <v>55</v>
@@ -2614,10 +2608,10 @@
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="81" t="s">
         <v>149</v>
       </c>
-      <c r="D5" s="79"/>
+      <c r="D5" s="82"/>
       <c r="E5" s="5"/>
       <c r="F5" s="39" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
@@ -2668,12 +2662,12 @@
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="71" t="s">
+      <c r="F8" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="73"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="76"/>
       <c r="J8" s="18"/>
       <c r="K8" s="12"/>
       <c r="L8" s="2"/>
@@ -2710,7 +2704,7 @@
       <c r="I9" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="J9" s="100" t="s">
+      <c r="J9" s="69" t="s">
         <v>6</v>
       </c>
       <c r="K9" s="21" t="s">
@@ -2721,7 +2715,7 @@
       <c r="A10" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="B10" s="99">
+      <c r="B10" s="68">
         <v>246807346</v>
       </c>
       <c r="C10" s="22" t="str">
@@ -2750,7 +2744,7 @@
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J10" s="98"/>
+      <c r="J10" s="67"/>
       <c r="K10" s="66" t="s">
         <v>153</v>
       </c>
@@ -2759,7 +2753,7 @@
       <c r="A11" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="B11" s="99">
+      <c r="B11" s="68">
         <v>246807346</v>
       </c>
       <c r="C11" s="22" t="str">
@@ -2782,16 +2776,16 @@
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
-      <c r="J11" s="98"/>
+      <c r="J11" s="67"/>
       <c r="K11" s="66" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="12" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="B12" s="99">
+      <c r="B12" s="68">
         <v>246807346</v>
       </c>
       <c r="C12" s="22" t="str">
@@ -2814,9 +2808,9 @@
       </c>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
-      <c r="J12" s="98"/>
+      <c r="J12" s="67"/>
       <c r="K12" s="66" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4376,25 +4370,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="84"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="87"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="33"/>
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
       <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
@@ -4402,11 +4396,11 @@
         <v>43</v>
       </c>
       <c r="B3" s="33"/>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="92"/>
-      <c r="E3" s="93"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="96"/>
       <c r="F3" s="34"/>
       <c r="H3" s="24" t="s">
         <v>18</v>
@@ -4457,11 +4451,11 @@
       <c r="C5" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="94" t="str">
+      <c r="D5" s="97" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>MA_11_01_CO</v>
       </c>
-      <c r="E5" s="95"/>
+      <c r="E5" s="98"/>
       <c r="F5" s="34"/>
       <c r="H5" s="24" t="s">
         <v>22</v>
@@ -4506,12 +4500,12 @@
       <c r="C7" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="80" t="str">
+      <c r="D7" s="83" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_MA_11_01_CO.xls</v>
       </c>
-      <c r="E7" s="80"/>
-      <c r="F7" s="81"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="84"/>
       <c r="H7" s="24" t="s">
         <v>24</v>
       </c>
@@ -4605,14 +4599,14 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="82" t="s">
+      <c r="A13" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="83"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="84"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="87"/>
       <c r="I13" s="24" t="s">
         <v>33</v>
       </c>
@@ -4645,12 +4639,12 @@
         <v>46</v>
       </c>
       <c r="B15" s="33"/>
-      <c r="C15" s="85" t="s">
+      <c r="C15" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="87"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="90"/>
       <c r="J15" s="24">
         <v>12</v>
       </c>
@@ -4690,12 +4684,12 @@
       <c r="C17" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="88" t="str">
+      <c r="D17" s="91" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>MA_11_01_REC10</v>
       </c>
-      <c r="E17" s="89"/>
-      <c r="F17" s="90"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="93"/>
       <c r="J17" s="24">
         <v>14</v>
       </c>
@@ -4711,12 +4705,12 @@
       <c r="C18" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="80" t="str">
+      <c r="D18" s="83" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_MA_11_01_REC10.xls</v>
       </c>
-      <c r="E18" s="80"/>
-      <c r="F18" s="81"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="84"/>
       <c r="J18" s="24">
         <v>15</v>
       </c>
@@ -5108,41 +5102,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="96" t="s">
+      <c r="C1" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="96" t="s">
+      <c r="D1" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="96" t="s">
+      <c r="E1" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="96" t="s">
+      <c r="F1" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="96" t="s">
+      <c r="G1" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="97" t="s">
+      <c r="H1" s="100" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="96"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
+      <c r="A2" s="99"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
       <c r="H2" s="43" t="s">
         <v>65</v>
       </c>
